--- a/Documents/ПримерниДанни.xlsx
+++ b/Documents/ПримерниДанни.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivail\_Spring\GitLocalBackup\TicketSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54545A16-DD7F-4566-9542-2263E0289918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391EEAF9-196C-4DBC-B923-7C46CA990BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BDBF2F6-7486-411C-892F-AE32BE4E4AFF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="116">
   <si>
     <t>Service</t>
   </si>
@@ -389,6 +389,12 @@
   </si>
   <si>
     <t>012345678</t>
+  </si>
+  <si>
+    <t>✖️</t>
+  </si>
+  <si>
+    <t>✔️</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm\ &quot; h&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +436,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,18 +472,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0066"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF66D9B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -477,50 +497,910 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF94545"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF94545"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF94545"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF74B53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF94545"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF94545"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF8686B"/>
+      <color rgb="FFF62626"/>
+      <color rgb="FFF74B53"/>
+      <color rgb="FFF94545"/>
+      <color rgb="FFF70D0D"/>
+      <color rgb="FFF04314"/>
+      <color rgb="FFF66D9B"/>
       <color rgb="FFFF0066"/>
     </mruColors>
   </colors>
@@ -832,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623AB37B-1123-4DDE-8152-8795E823DD52}">
-  <dimension ref="B1:F55"/>
+  <dimension ref="B1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -847,820 +1727,988 @@
     <col min="6" max="6" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="61" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="G2" s="57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="15">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="21">
         <v>0.34027777777777773</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="15">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="6">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="6">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="21">
         <v>0.36458333333333331</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="12" spans="2:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+    </row>
+    <row r="14" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+    <row r="15" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="15">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="6">
         <v>0.4375</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="6">
         <v>0</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="B17" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="15">
         <v>0.9375</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="6">
         <v>0.52777777777777779</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="6">
         <v>0</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+      <c r="B18" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="48" t="s">
         <v>6</v>
       </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+      <c r="B21" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+    <row r="22" spans="2:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="51" t="s">
         <v>7</v>
       </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+      <c r="B24" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+      <c r="B25" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+      <c r="B26" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="31">
         <v>1</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>3</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="23">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+    <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="65" t="s">
         <v>1</v>
       </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+      <c r="B29" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+      <c r="B30" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
+      <c r="B31" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="15">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="6">
         <v>0.4375</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="6">
         <v>0.34027777777777773</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="21">
         <v>0.37152777777777773</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+      <c r="B32" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="15">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="6">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="6">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="21">
         <v>0.625</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
+      <c r="B33" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
+      <c r="C33" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
+      <c r="B34" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="32">
         <v>1500</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="7">
         <v>3400</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <v>5000</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="23">
         <v>100000</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="71" t="s">
         <v>3</v>
       </c>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
     </row>
     <row r="37" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
+      <c r="B37" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="22" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
+      <c r="B39" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" t="b">
-        <v>1</v>
+      <c r="C39" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
+      <c r="B40" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
+      <c r="C40" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
+      <c r="B41" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
+      <c r="C41" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
+      <c r="B42" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
+      <c r="C42" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="5" t="s">
+      <c r="C43" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="73" t="s">
         <v>4</v>
       </c>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
+      <c r="B45" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="39">
         <v>1499</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="40">
         <v>3399</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="40">
         <v>4560</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="41">
         <v>930334</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
+      <c r="B46" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="15">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="6">
         <v>0.4826388888888889</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="6">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="21">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="6" t="s">
+      <c r="C47" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="54" t="s">
         <v>8</v>
       </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
+      <c r="B49" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
+      <c r="B50" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
+      <c r="B51" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
+      <c r="B52" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="7">
         <v>12345678</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="23">
         <v>12345679</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
+      <c r="B53" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
+      <c r="B54" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
+    <row r="55" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="36">
         <v>540</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="25">
         <v>10000</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="25">
         <v>6000</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="26">
         <v>6001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B28:F28"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="51" priority="48" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" dxfId="50" priority="47" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:C43">
+    <cfRule type="cellIs" dxfId="49" priority="46" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:E40">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F41 E39 E41:E43 D42:D43">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:F33">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C51" r:id="rId1" xr:uid="{6A85D31B-11EC-46B0-BD71-C5C6BB854F06}"/>
     <hyperlink ref="D51" r:id="rId2" xr:uid="{F6A08801-22F6-453D-A289-246746889499}"/>

--- a/Documents/ПримерниДанни.xlsx
+++ b/Documents/ПримерниДанни.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivail\_Spring\GitLocalBackup\TicketSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74BF315-1F7D-45BB-AE77-D69AE8B178FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B847D10F-23A2-4732-A412-DD355273E05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BDBF2F6-7486-411C-892F-AE32BE4E4AFF}"/>
   </bookViews>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623AB37B-1123-4DDE-8152-8795E823DD52}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Documents/ПримерниДанни.xlsx
+++ b/Documents/ПримерниДанни.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivail\_Spring\GitLocalBackup\TicketSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B847D10F-23A2-4732-A412-DD355273E05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7311898C-A3DE-4202-81C3-D9C3E5D35A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BDBF2F6-7486-411C-892F-AE32BE4E4AFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BDBF2F6-7486-411C-892F-AE32BE4E4AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -704,18 +704,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -742,32 +736,49 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -849,6 +860,104 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF94545"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8686B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1191,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623AB37B-1123-4DDE-8152-8795E823DD52}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1235,17 +1344,17 @@
       <c r="A3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1265,10 +1374,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1285,7 +1394,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4">
@@ -1305,7 +1414,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4">
@@ -1325,7 +1434,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1345,119 +1454,119 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -1465,7 +1574,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4">
@@ -1485,7 +1594,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="4">
@@ -1505,7 +1614,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1525,7 +1634,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1545,17 +1654,17 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1575,7 +1684,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1595,7 +1704,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2">
@@ -1615,7 +1724,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1635,17 +1744,17 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1665,19 +1774,19 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -1685,7 +1794,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="4">
@@ -1705,7 +1814,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="4">
@@ -1725,7 +1834,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1745,7 +1854,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="5">
@@ -1765,7 +1874,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1785,17 +1894,17 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="34"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1815,19 +1924,19 @@
       </c>
     </row>
     <row r="35" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="19" t="s">
         <v>100</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -1835,7 +1944,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1855,7 +1964,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1875,7 +1984,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1895,7 +2004,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -1915,7 +2024,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1935,17 +2044,17 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="2">
@@ -1965,7 +2074,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="4">
@@ -1985,7 +2094,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2005,17 +2114,17 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2035,7 +2144,7 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2055,7 +2164,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -2075,7 +2184,7 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -2090,12 +2199,12 @@
       <c r="F49" s="5">
         <v>12345679</v>
       </c>
-      <c r="G49" s="34">
+      <c r="G49" s="28">
         <v>12345678</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2115,7 +2224,7 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2135,7 +2244,7 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="5">
@@ -2155,17 +2264,17 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2185,19 +2294,19 @@
       </c>
     </row>
     <row r="55" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="19" t="s">
         <v>142</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -2205,7 +2314,7 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="25" t="s">
         <v>130</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2225,7 +2334,7 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="25" t="s">
         <v>131</v>
       </c>
       <c r="C57" s="5">
@@ -2245,89 +2354,91 @@
       </c>
     </row>
     <row r="58" spans="2:7" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G58" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B53:G53"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B45:G45"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="13" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="58" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="12" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="57" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:F40 C30:G30 C44:G44">
-    <cfRule type="cellIs" dxfId="11" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="59" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="60" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/ПримерниДанни.xlsx
+++ b/Documents/ПримерниДанни.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivail\_Spring\GitLocalBackup\TicketSystem\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivail\_Spring\ZipDanloads\TicketSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7311898C-A3DE-4202-81C3-D9C3E5D35A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FED0D8-3CBB-4F24-833E-6152E970B249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BDBF2F6-7486-411C-892F-AE32BE4E4AFF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BDBF2F6-7486-411C-892F-AE32BE4E4AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -721,21 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -771,6 +756,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -778,7 +772,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -860,104 +854,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF8686B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF94545"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8686B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8686B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8686B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8686B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8686B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8686B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1300,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623AB37B-1123-4DDE-8152-8795E823DD52}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:G45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1344,14 +1240,14 @@
       <c r="A3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
@@ -1454,14 +1350,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
@@ -1524,14 +1420,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
@@ -1654,14 +1550,14 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1744,14 +1640,14 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="16" t="s">
@@ -1894,14 +1790,14 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="16" t="s">
@@ -2044,14 +1940,14 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="16" t="s">
@@ -2114,14 +2010,14 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" s="18" t="s">
@@ -2199,7 +2095,7 @@
       <c r="F49" s="5">
         <v>12345679</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="23">
         <v>12345678</v>
       </c>
     </row>
@@ -2264,17 +2160,17 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2294,10 +2190,10 @@
       </c>
     </row>
     <row r="55" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="21" t="s">
         <v>132</v>
       </c>
       <c r="D55" s="13" t="s">
@@ -2309,12 +2205,12 @@
       <c r="F55" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2334,7 +2230,7 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C57" s="5">
@@ -2343,7 +2239,7 @@
       <c r="D57" s="5">
         <v>540578</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>100123</v>
       </c>
       <c r="F57" s="2">
@@ -2354,7 +2250,7 @@
       </c>
     </row>
     <row r="58" spans="2:7" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="22" t="s">
         <v>137</v>
       </c>
       <c r="C58" s="19" t="s">
@@ -2375,70 +2271,73 @@
     </row>
     <row r="59" spans="2:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="B53:G53"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B41:G41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="27" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="58" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="26" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="57" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:F40 C30:G30 C44:G44">
-    <cfRule type="cellIs" dxfId="14" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="59" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="60" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$A$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/ПримерниДанни.xlsx
+++ b/Documents/ПримерниДанни.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivail\_Spring\ZipDanloads\TicketSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FED0D8-3CBB-4F24-833E-6152E970B249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9722B56C-29C0-46C0-B6E0-809A0BE63043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BDBF2F6-7486-411C-892F-AE32BE4E4AFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BDBF2F6-7486-411C-892F-AE32BE4E4AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="150">
   <si>
     <t>Service</t>
   </si>
@@ -680,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -731,15 +731,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,10 +758,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Хипервръзка" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -898,9 +916,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема на Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Оffice">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -938,7 +956,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Оffice">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1044,7 +1062,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Оffice">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1197,7 +1215,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,14 +1258,16 @@
       <c r="A3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
@@ -1350,14 +1370,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
@@ -1420,14 +1442,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
@@ -1550,14 +1574,16 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1640,14 +1666,16 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="16" t="s">
@@ -1790,14 +1818,16 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="16" t="s">
@@ -1940,14 +1970,16 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="16" t="s">
@@ -2010,14 +2042,16 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" s="18" t="s">
@@ -2160,14 +2194,16 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="20" t="s">
@@ -2271,16 +2307,25 @@
     </row>
     <row r="59" spans="2:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B41:G41"/>
+  <mergeCells count="18">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A3">
